--- a/similarities/split_global/harmonic_similarity_timestamps_209.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_209.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,655 +484,689 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:37.992880', '0:00:42.009932')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:20.240000')]</t>
+          <t>('0:00:45.480000', '0:00:48')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=37.99288']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>isophonics_14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G/5', 'D', 'G', 'D']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G', 'C/5', 'G', 'C/5', 'G']]</t>
+          <t>['C:7', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:21.391000', '0:00:32.032000')]</t>
+          <t>('0:01:06.040000', '0:01:08.540000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:57.406099', '0:01:08.064058')]</t>
+          <t>('0:00:12.503707', '0:00:19.759943')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=21.391']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=57.406099']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:36.020000', '0:00:45.640000'), ('0:00:30.760000', '0:00:37.720000')]</t>
+          <t>('0:00:43.880000', '0:00:48.020000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:21.860000', '0:00:28.920000'), ('0:01:04.420000', '0:01:09.700000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=36.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=30.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=21.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=64.42']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>isophonics_271</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['A:min', 'E', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['Bb:min', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.160000', '0:00:23.860000')]</t>
+          <t>('0:00:42.132630', '0:00:52.001111')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:33.420000', '0:02:36.600000')]</t>
+          <t>('0:01:01.600000', '0:01:04.390000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=6.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=42.13263</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=153.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=61.6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Bb:min', 'F:7', 'Bb:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:48.240000', '0:00:55.680000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:12.560000', '0:00:19.540000'), ('0:00:23.040000', '0:00:28.920000')]</t>
+          <t>('0:00:43.680000', '0:00:44.980000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=48.24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=43.68</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>jaah_46</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['F:7', 'Eb:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['B:7', 'A:7', 'E:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:20.050000', '0:00:26.800000')]</t>
+          <t>('0:00:15.470000', '0:00:24.580000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:13.740000', '0:01:29.520000')]</t>
+          <t>('0:00:29.771700', '0:00:35.553469')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-46#t=15.47</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=29.7717</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C#', 'F#/5', 'C#', 'F#/5']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000'), ('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:01.206300', '0:02:07.006105')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000'), ('0:00:00.800000', '0:00:09.280000')]</t>
+          <t>('0:02:22.140000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min/b3', 'B:7', 'E'], ['A/3', 'D', 'A']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min', 'G:7/B', 'C:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:44.913000', '0:00:50.190000'), ('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:35.888000', '0:00:38.359000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.200000', '0:00:17.780000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:27.360000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=44.913', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=11.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C']]</t>
+          <t>['C:min7', 'F:7', 'Bb', 'G:7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab', 'F:7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:41.655000', '0:00:46.220000')]</t>
+          <t>('0:00:13.120000', '0:00:15.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:28.583470', '0:01:38.974002')]</t>
+          <t>('0:00:13.210000', '0:00:17.560000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=13.12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:07.480000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=7.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:36.120000', '0:01:43.440000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:55.560000', '0:02:04.800000'), ('0:00:22.400000', '0:00:31.860000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=96.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=115.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=22.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:18.100000', '0:00:44.900000')]</t>
+          <t>('0:00:03.599751', '0:00:06.705328')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:24.700000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=18.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1142,36 +1176,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
+          <t>['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:08.720000', '0:00:14.060000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:18.064810')]</t>
+          <t>('0:00:12.094553', '0:00:24.840113')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
